--- a/Risk evaluation questions.xlsx
+++ b/Risk evaluation questions.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\L150944\NAV\Risikovurderinger - General\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://navno-my.sharepoint.com/personal/leif_tore_lovmo_nav_no/Documents/Under Arbeid/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{360CE099-7929-4224-9429-112AAE7A6D81}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B937F427-CA16-4434-95A8-31D0950BEEF3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="8730" windowHeight="5970" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19180" windowHeight="6940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -648,20 +648,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.453125" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="1"/>
-    <col min="2" max="2" width="79.28515625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="49.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="33.85546875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="1" width="11.453125" style="1"/>
+    <col min="2" max="2" width="79.26953125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="49.7265625" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33.81640625" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="11.453125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -672,7 +672,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" ht="76.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>1</v>
       </c>
@@ -680,7 +680,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>2</v>
       </c>
@@ -688,7 +688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>3</v>
       </c>
@@ -696,7 +696,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>4</v>
       </c>
@@ -704,7 +704,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>5</v>
       </c>
@@ -712,7 +712,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>6</v>
       </c>
@@ -720,7 +720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>7</v>
       </c>
@@ -728,7 +728,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:3" ht="34.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>8</v>
       </c>
@@ -736,7 +736,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="10" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:3" ht="29" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>9</v>
       </c>
@@ -744,7 +744,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="1">
         <v>10</v>
       </c>
@@ -752,7 +752,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:3" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="1">
         <v>11</v>
       </c>
@@ -760,7 +760,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" s="12" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="14">
         <v>12</v>
       </c>
@@ -768,7 +768,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:3" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="14">
         <v>13</v>
       </c>
@@ -776,7 +776,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A15" s="14">
         <v>14</v>
       </c>
@@ -784,7 +784,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A16" s="14">
         <v>15</v>
       </c>
@@ -792,7 +792,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" s="14">
         <v>16</v>
       </c>
@@ -800,7 +800,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:4" ht="33" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="14">
         <v>17</v>
       </c>
@@ -808,7 +808,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="19" spans="1:4" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:4" s="4" customFormat="1" ht="17.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="14">
         <v>18</v>
       </c>
@@ -816,7 +816,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="20" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:4" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="14">
         <v>19</v>
       </c>
@@ -824,7 +824,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A21" s="14">
         <v>20</v>
       </c>
@@ -832,7 +832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:4" s="4" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A22" s="14">
         <v>21</v>
       </c>
@@ -840,7 +840,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A23" s="14">
         <v>22</v>
       </c>
@@ -848,7 +848,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="24" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A24" s="14">
         <v>23</v>
       </c>
@@ -856,7 +856,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A25" s="14">
         <v>24</v>
       </c>
@@ -864,7 +864,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A26" s="14">
         <v>25</v>
       </c>
@@ -872,7 +872,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A27" s="14">
         <v>26</v>
       </c>
@@ -880,7 +880,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="28" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A28" s="14">
         <v>27</v>
       </c>
@@ -889,7 +889,7 @@
       </c>
       <c r="C28" s="11"/>
     </row>
-    <row r="29" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:4" ht="58" x14ac:dyDescent="0.35">
       <c r="A29" s="14">
         <v>28</v>
       </c>
@@ -898,9 +898,9 @@
       </c>
       <c r="C29" s="11"/>
     </row>
-    <row r="30" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A30" s="14">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="B30" s="15" t="s">
         <v>23</v>
@@ -908,75 +908,75 @@
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
     </row>
-    <row r="31" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:4" s="5" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A31" s="14">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A32" s="14">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C32" s="11"/>
     </row>
-    <row r="33" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A33" s="14">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="34" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:4" ht="87" x14ac:dyDescent="0.35">
       <c r="A34" s="14">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B34" s="13" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="35" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A35" s="14">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A36" s="14">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="37" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:4" ht="29" x14ac:dyDescent="0.35">
       <c r="A37" s="14">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="38" spans="1:4" s="9" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4" s="9" customFormat="1" ht="29" x14ac:dyDescent="0.35">
       <c r="A38" s="14">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="B38" s="15" t="s">
         <v>28</v>
       </c>
       <c r="C38" s="10"/>
     </row>
-    <row r="39" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A39" s="14">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>40</v>
@@ -984,111 +984,112 @@
       <c r="C39" s="7"/>
       <c r="D39"/>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A40" s="14"/>
       <c r="B40"/>
       <c r="C40" s="7"/>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B41"/>
       <c r="C41"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B42"/>
       <c r="C42"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B43"/>
       <c r="C43"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B44"/>
       <c r="C44" s="7"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B45"/>
       <c r="C45"/>
       <c r="D45" s="7"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B46"/>
       <c r="C46"/>
       <c r="D46" s="7"/>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B47" s="7"/>
       <c r="C47"/>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.35">
       <c r="B48" s="7"/>
       <c r="C48"/>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B49" s="7"/>
       <c r="C49"/>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B50" s="7"/>
       <c r="C50"/>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B51" s="7"/>
       <c r="C51"/>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B52" s="7"/>
       <c r="C52"/>
     </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B53" s="7"/>
       <c r="C53"/>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B54" s="7"/>
       <c r="C54"/>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C55"/>
       <c r="D55" s="7"/>
     </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B56" s="8"/>
     </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:4" x14ac:dyDescent="0.35">
       <c r="B57" s="8"/>
     </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C58"/>
     </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C59"/>
     </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C60"/>
     </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C61"/>
       <c r="D61" s="7"/>
     </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C62"/>
       <c r="D62" s="7"/>
     </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C63"/>
       <c r="D63" s="7"/>
     </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:4" x14ac:dyDescent="0.35">
       <c r="C64"/>
       <c r="D64" s="7"/>
     </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:3" x14ac:dyDescent="0.35">
       <c r="C65"/>
     </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B66"/>
       <c r="C66"/>
     </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:3" x14ac:dyDescent="0.35">
       <c r="B67" s="6"/>
       <c r="C67"/>
     </row>
@@ -1099,29 +1100,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <SharedWithUsers xmlns="70b97532-3800-410f-bb8c-11b1637c40eb">
-      <UserInfo>
-        <DisplayName>Stensby, Stein</DisplayName>
-        <AccountId>20</AccountId>
-        <AccountType/>
-      </UserInfo>
-    </SharedWithUsers>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100D0468665F91F1E478ADD52CF771B9B4A" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="24e6a3f5895b36990868a28c4f468f55">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6609b14e-dd82-46ca-b719-36bf76e18a49" xmlns:ns3="70b97532-3800-410f-bb8c-11b1637c40eb" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="2cdce657d6207697ad0a963d2a5db6dc" ns2:_="" ns3:_="">
     <xsd:import namespace="6609b14e-dd82-46ca-b719-36bf76e18a49"/>
@@ -1300,10 +1278,44 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <SharedWithUsers xmlns="70b97532-3800-410f-bb8c-11b1637c40eb">
+      <UserInfo>
+        <DisplayName>Stensby, Stein</DisplayName>
+        <AccountId>20</AccountId>
+        <AccountType/>
+      </UserInfo>
+    </SharedWithUsers>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0474852F-5612-4881-A3EC-BF3CE3290B70}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FD23D9-BFC4-4884-9A5B-5698A84DEDE6}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="6609b14e-dd82-46ca-b719-36bf76e18a49"/>
+    <ds:schemaRef ds:uri="70b97532-3800-410f-bb8c-11b1637c40eb"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -1311,20 +1323,24 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DF46DCD3-1B91-44B1-96BD-726425A93EE7}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
     <ds:schemaRef ds:uri="6609b14e-dd82-46ca-b719-36bf76e18a49"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="70b97532-3800-410f-bb8c-11b1637c40eb"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{52FD23D9-BFC4-4884-9A5B-5698A84DEDE6}"/>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0474852F-5612-4881-A3EC-BF3CE3290B70}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>